--- a/data/pca/factorExposure/factorExposure_2012-11-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-11-13.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001693447787402102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.002173928478552264</v>
+      </c>
+      <c r="C2">
+        <v>-0.02976963039964738</v>
+      </c>
+      <c r="D2">
+        <v>0.004428074946757745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001459508045876185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.00685439701226643</v>
+      </c>
+      <c r="C4">
+        <v>-0.08287968298943044</v>
+      </c>
+      <c r="D4">
+        <v>0.07518733516194291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003080677500014759</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01453469365718475</v>
+      </c>
+      <c r="C6">
+        <v>-0.115222793729786</v>
+      </c>
+      <c r="D6">
+        <v>0.03001579411778497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002130414714166537</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004914434887906598</v>
+      </c>
+      <c r="C7">
+        <v>-0.05842245342387691</v>
+      </c>
+      <c r="D7">
+        <v>0.03236063438491939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0004142081182510551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005965773468361287</v>
+      </c>
+      <c r="C8">
+        <v>-0.0369612733430433</v>
+      </c>
+      <c r="D8">
+        <v>0.0405089070134351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.004039379329950424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005015062212385777</v>
+      </c>
+      <c r="C9">
+        <v>-0.0707740984613205</v>
+      </c>
+      <c r="D9">
+        <v>0.07329400891665092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.001550378620262558</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005705252565118341</v>
+      </c>
+      <c r="C10">
+        <v>-0.05564541910994723</v>
+      </c>
+      <c r="D10">
+        <v>-0.1974833453127625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.004484030868132035</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005510329737944986</v>
+      </c>
+      <c r="C11">
+        <v>-0.07933429037663373</v>
+      </c>
+      <c r="D11">
+        <v>0.06316120653427529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001505651028044922</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003897852445622624</v>
+      </c>
+      <c r="C12">
+        <v>-0.0636323561222107</v>
+      </c>
+      <c r="D12">
+        <v>0.04902986242151819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.001985501085671674</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.009079775430828597</v>
+      </c>
+      <c r="C13">
+        <v>-0.07003143701064121</v>
+      </c>
+      <c r="D13">
+        <v>0.05596938445372508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.002349495557996963</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001123989556963638</v>
+      </c>
+      <c r="C14">
+        <v>-0.04401080575183951</v>
+      </c>
+      <c r="D14">
+        <v>0.005717739913498576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0007450899367182252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006051337874647083</v>
+      </c>
+      <c r="C15">
+        <v>-0.04188941991130861</v>
+      </c>
+      <c r="D15">
+        <v>0.03099947913640116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.002257981873530043</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004903149156669409</v>
+      </c>
+      <c r="C16">
+        <v>-0.06421601276264469</v>
+      </c>
+      <c r="D16">
+        <v>0.05466844577617101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0009811531368240831</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008750139194949848</v>
+      </c>
+      <c r="C20">
+        <v>-0.06554779037294034</v>
+      </c>
+      <c r="D20">
+        <v>0.04319183513112286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005978429700481757</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009810074508731561</v>
+      </c>
+      <c r="C21">
+        <v>-0.02146451033910118</v>
+      </c>
+      <c r="D21">
+        <v>0.03873231577134548</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01758021284428176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006279123513040535</v>
+      </c>
+      <c r="C22">
+        <v>-0.09282393148078102</v>
+      </c>
+      <c r="D22">
+        <v>0.1206744746709681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01788586408197858</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006072769354383771</v>
+      </c>
+      <c r="C23">
+        <v>-0.09358908666975781</v>
+      </c>
+      <c r="D23">
+        <v>0.1206632634288263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.003617410423303097</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005365883013789236</v>
+      </c>
+      <c r="C24">
+        <v>-0.07560941691720718</v>
+      </c>
+      <c r="D24">
+        <v>0.06698362132949331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005759315106911359</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003155928238916875</v>
+      </c>
+      <c r="C25">
+        <v>-0.07795369646169339</v>
+      </c>
+      <c r="D25">
+        <v>0.0647642975340217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.004304295357446473</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003565028687833836</v>
+      </c>
+      <c r="C26">
+        <v>-0.03880645948146919</v>
+      </c>
+      <c r="D26">
+        <v>0.02381236673067976</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.007381440429272466</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0009425677651846568</v>
+      </c>
+      <c r="C28">
+        <v>-0.1049822168426455</v>
+      </c>
+      <c r="D28">
+        <v>-0.3226852741865699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001529230327986145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002922225362708117</v>
+      </c>
+      <c r="C29">
+        <v>-0.05017751360770938</v>
+      </c>
+      <c r="D29">
+        <v>0.006787838130893425</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005137822458882444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.01012344639344254</v>
+      </c>
+      <c r="C30">
+        <v>-0.1427889746843464</v>
+      </c>
+      <c r="D30">
+        <v>0.1049409121583399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001838177804496664</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006419831150654397</v>
+      </c>
+      <c r="C31">
+        <v>-0.04430891114043667</v>
+      </c>
+      <c r="D31">
+        <v>0.02995623099870185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005411650225199681</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003718425938401</v>
+      </c>
+      <c r="C32">
+        <v>-0.03967444783803666</v>
+      </c>
+      <c r="D32">
+        <v>0.02432617867459336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003686279448367624</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008533671429275016</v>
+      </c>
+      <c r="C33">
+        <v>-0.08659521975994666</v>
+      </c>
+      <c r="D33">
+        <v>0.06591137918639592</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.00520153919871167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003981792923042143</v>
+      </c>
+      <c r="C34">
+        <v>-0.05769932250661379</v>
+      </c>
+      <c r="D34">
+        <v>0.05566436592226492</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0007052348450015683</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005120213212826574</v>
+      </c>
+      <c r="C35">
+        <v>-0.0402510041042344</v>
+      </c>
+      <c r="D35">
+        <v>0.01805417871511572</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004514691498153541</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001058856886117211</v>
+      </c>
+      <c r="C36">
+        <v>-0.02499969435225115</v>
+      </c>
+      <c r="D36">
+        <v>0.02353775863558397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.00104704472902544</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008970173642212699</v>
+      </c>
+      <c r="C38">
+        <v>-0.03478725952746704</v>
+      </c>
+      <c r="D38">
+        <v>0.01528507860230563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01405418006618799</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001030818685135943</v>
+      </c>
+      <c r="C39">
+        <v>-0.1146372899643687</v>
+      </c>
+      <c r="D39">
+        <v>0.07659714922798827</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009420979406095887</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003584032360347418</v>
+      </c>
+      <c r="C40">
+        <v>-0.09060593662360819</v>
+      </c>
+      <c r="D40">
+        <v>0.01194771106577622</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0008559662037540127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007149341005324657</v>
+      </c>
+      <c r="C41">
+        <v>-0.03772070872586746</v>
+      </c>
+      <c r="D41">
+        <v>0.03855091933283086</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003706749828293147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003870105850431474</v>
+      </c>
+      <c r="C43">
+        <v>-0.05310037745165907</v>
+      </c>
+      <c r="D43">
+        <v>0.02626104494391096</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.01637356289225323</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002976445052064657</v>
+      </c>
+      <c r="C44">
+        <v>-0.1075733880016816</v>
+      </c>
+      <c r="D44">
+        <v>0.06702067755766636</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.0004512082815158836</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002183861334807365</v>
+      </c>
+      <c r="C46">
+        <v>-0.03313762921170882</v>
+      </c>
+      <c r="D46">
+        <v>0.03312246163099169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.001241602300779438</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002388932990523965</v>
+      </c>
+      <c r="C47">
+        <v>-0.03649166265256381</v>
+      </c>
+      <c r="D47">
+        <v>0.02069641916160372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003886328117270277</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006715351425343543</v>
+      </c>
+      <c r="C48">
+        <v>-0.03014045946419187</v>
+      </c>
+      <c r="D48">
+        <v>0.03532759234770499</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01337067846350707</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01638064164007495</v>
+      </c>
+      <c r="C49">
+        <v>-0.1868561822798086</v>
+      </c>
+      <c r="D49">
+        <v>0.01432688861894364</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.00205455749006823</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003792522325313107</v>
+      </c>
+      <c r="C50">
+        <v>-0.04333580215211411</v>
+      </c>
+      <c r="D50">
+        <v>0.03724535439146758</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0003499910280423042</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004801666272674406</v>
+      </c>
+      <c r="C51">
+        <v>-0.02527989454519426</v>
+      </c>
+      <c r="D51">
+        <v>0.01958598331225473</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0005119130681652021</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02110511922704589</v>
+      </c>
+      <c r="C53">
+        <v>-0.1697281532708298</v>
+      </c>
+      <c r="D53">
+        <v>0.02689028465018348</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.00182479431771128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008878901024296075</v>
+      </c>
+      <c r="C54">
+        <v>-0.05449436271216512</v>
+      </c>
+      <c r="D54">
+        <v>0.04516439213441272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.005459269025916741</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009538186122249558</v>
+      </c>
+      <c r="C55">
+        <v>-0.1093718716476124</v>
+      </c>
+      <c r="D55">
+        <v>0.0390005355851869</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.0003977436827312721</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02036798847241979</v>
+      </c>
+      <c r="C56">
+        <v>-0.1762719710542297</v>
+      </c>
+      <c r="D56">
+        <v>0.01607445883076799</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.009734221989667668</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01950896065585745</v>
+      </c>
+      <c r="C58">
+        <v>-0.1099901059593477</v>
+      </c>
+      <c r="D58">
+        <v>0.06260765232231653</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009336931467555418</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01023933775443157</v>
+      </c>
+      <c r="C59">
+        <v>-0.1633560195395028</v>
+      </c>
+      <c r="D59">
+        <v>-0.3332181872380825</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.005574403243556787</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02529471665388564</v>
+      </c>
+      <c r="C60">
+        <v>-0.2250061751814422</v>
+      </c>
+      <c r="D60">
+        <v>0.02383232692834786</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01534429482882274</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001740851922891774</v>
+      </c>
+      <c r="C61">
+        <v>-0.09484389949600647</v>
+      </c>
+      <c r="D61">
+        <v>0.05651642252218606</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1594676438832023</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1480883946416569</v>
+      </c>
+      <c r="C62">
+        <v>-0.09545259093640142</v>
+      </c>
+      <c r="D62">
+        <v>0.03161383006647822</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0006633292768028951</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006718242728916865</v>
+      </c>
+      <c r="C63">
+        <v>-0.05447191672991979</v>
+      </c>
+      <c r="D63">
+        <v>0.02729869099555212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0008377297051167936</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01534320082618845</v>
+      </c>
+      <c r="C64">
+        <v>-0.1042095844052601</v>
+      </c>
+      <c r="D64">
+        <v>0.06344674552305046</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.001839491781785218</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01797170942821862</v>
+      </c>
+      <c r="C65">
+        <v>-0.1238003199132924</v>
+      </c>
+      <c r="D65">
+        <v>0.02076136376215115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007841095477668343</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01342154439737917</v>
+      </c>
+      <c r="C66">
+        <v>-0.1597899718733616</v>
+      </c>
+      <c r="D66">
+        <v>0.1134320045737613</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.002784669359452917</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01550759300061443</v>
+      </c>
+      <c r="C67">
+        <v>-0.06604211694298884</v>
+      </c>
+      <c r="D67">
+        <v>0.02709896932816128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.007411358148857674</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001013666951616085</v>
+      </c>
+      <c r="C68">
+        <v>-0.08548968339633183</v>
+      </c>
+      <c r="D68">
+        <v>-0.2625010631423981</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002417874709483924</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.00609853442660458</v>
+      </c>
+      <c r="C69">
+        <v>-0.05090522624665549</v>
+      </c>
+      <c r="D69">
+        <v>0.0367005363582323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.000444743044252221</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001778652400085612</v>
+      </c>
+      <c r="C70">
+        <v>-0.003001938781603219</v>
+      </c>
+      <c r="D70">
+        <v>0.002278188076150574</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001633209621623732</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005949771667234485</v>
+      </c>
+      <c r="C71">
+        <v>-0.09225406589583078</v>
+      </c>
+      <c r="D71">
+        <v>-0.3036605865711649</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005420349186250772</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.0164408878357619</v>
+      </c>
+      <c r="C72">
+        <v>-0.1530828544221033</v>
+      </c>
+      <c r="D72">
+        <v>0.0143391860770669</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01548150201237369</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03147176921673661</v>
+      </c>
+      <c r="C73">
+        <v>-0.2827308089340964</v>
+      </c>
+      <c r="D73">
+        <v>0.05749464510275698</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.006899247441586825</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002170932000961492</v>
+      </c>
+      <c r="C74">
+        <v>-0.103285733429021</v>
+      </c>
+      <c r="D74">
+        <v>0.03459115619962697</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.003926441527403699</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01152605929361485</v>
+      </c>
+      <c r="C75">
+        <v>-0.1230083386684497</v>
+      </c>
+      <c r="D75">
+        <v>0.02010691041370694</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.005890652156660362</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02270949273211331</v>
+      </c>
+      <c r="C76">
+        <v>-0.1493038986751138</v>
+      </c>
+      <c r="D76">
+        <v>0.05539113794402691</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.004662537517505804</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02281114376417619</v>
+      </c>
+      <c r="C77">
+        <v>-0.1167288715389595</v>
+      </c>
+      <c r="D77">
+        <v>0.06724120701014745</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0004172520920853102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01515599081838193</v>
+      </c>
+      <c r="C78">
+        <v>-0.09597059618043996</v>
+      </c>
+      <c r="D78">
+        <v>0.0739110869155138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02187965278155694</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03825062199955994</v>
+      </c>
+      <c r="C79">
+        <v>-0.156362902332062</v>
+      </c>
+      <c r="D79">
+        <v>0.0306445268336193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.005643978936294222</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01000711060180787</v>
+      </c>
+      <c r="C80">
+        <v>-0.03943893260837748</v>
+      </c>
+      <c r="D80">
+        <v>0.03049388183933337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>8.986242438238479e-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01572114681831523</v>
+      </c>
+      <c r="C81">
+        <v>-0.1296435832826244</v>
+      </c>
+      <c r="D81">
+        <v>0.03797213065037861</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.002654043579407391</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02018228575813471</v>
+      </c>
+      <c r="C82">
+        <v>-0.1393333839764155</v>
+      </c>
+      <c r="D82">
+        <v>0.04161642694430738</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.005175775514934641</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01067146381554854</v>
+      </c>
+      <c r="C83">
+        <v>-0.0586366771721901</v>
+      </c>
+      <c r="D83">
+        <v>0.04672277703566547</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01310496767049792</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01177124782500707</v>
+      </c>
+      <c r="C84">
+        <v>-0.03757142211523155</v>
+      </c>
+      <c r="D84">
+        <v>-0.001250138841262197</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01238629671902315</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02925232446399365</v>
+      </c>
+      <c r="C85">
+        <v>-0.1252962252450162</v>
+      </c>
+      <c r="D85">
+        <v>0.04092366973107024</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.002999676189821361</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004634068507885338</v>
+      </c>
+      <c r="C86">
+        <v>-0.04939091089145281</v>
+      </c>
+      <c r="D86">
+        <v>0.02911805568831264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.004049708177958478</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01101837271539356</v>
+      </c>
+      <c r="C87">
+        <v>-0.129417654146092</v>
+      </c>
+      <c r="D87">
+        <v>0.06946223853790538</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01167628062612895</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002754514429214498</v>
+      </c>
+      <c r="C88">
+        <v>-0.06321905838798836</v>
+      </c>
+      <c r="D88">
+        <v>0.02222159297153039</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01545401225769676</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001323232687846502</v>
+      </c>
+      <c r="C89">
+        <v>-0.1393572169113</v>
+      </c>
+      <c r="D89">
+        <v>-0.3201425404104962</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.003942778186493119</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006869155104982206</v>
+      </c>
+      <c r="C90">
+        <v>-0.1195018686251902</v>
+      </c>
+      <c r="D90">
+        <v>-0.3170381905666977</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001251919822028111</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01058887974682248</v>
+      </c>
+      <c r="C91">
+        <v>-0.100488907710167</v>
+      </c>
+      <c r="D91">
+        <v>0.02179249654895063</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01074016881944912</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.00126260463592936</v>
+      </c>
+      <c r="C92">
+        <v>-0.1352467234211814</v>
+      </c>
+      <c r="D92">
+        <v>-0.3256375622343767</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.002501527729158138</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005276373406159119</v>
+      </c>
+      <c r="C93">
+        <v>-0.1044390539090353</v>
+      </c>
+      <c r="D93">
+        <v>-0.3023620577856529</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0008195024950776629</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.0225380826107606</v>
+      </c>
+      <c r="C94">
+        <v>-0.1458900237830723</v>
+      </c>
+      <c r="D94">
+        <v>0.0494031881933636</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.00329253665762305</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01718782173028212</v>
+      </c>
+      <c r="C95">
+        <v>-0.1229397560406922</v>
+      </c>
+      <c r="D95">
+        <v>0.06237763675208314</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001925578204099244</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03612130684502106</v>
+      </c>
+      <c r="C97">
+        <v>-0.2179527090216412</v>
+      </c>
+      <c r="D97">
+        <v>-0.01237368804903652</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.004112323148251598</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03816309702494524</v>
+      </c>
+      <c r="C98">
+        <v>-0.2530024155785831</v>
+      </c>
+      <c r="D98">
+        <v>0.04045035353415728</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9850926043041768</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9814385804773555</v>
+      </c>
+      <c r="C99">
+        <v>0.1200389381405093</v>
+      </c>
+      <c r="D99">
+        <v>-0.02424988141441327</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001449479633079061</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002963368201799566</v>
+      </c>
+      <c r="C101">
+        <v>-0.0503121685945283</v>
+      </c>
+      <c r="D101">
+        <v>0.007174946547777071</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
